--- a/examples/USA OGD/Baton_rouge/Baton_Rouge_Crime_Incidents_summary.xlsx
+++ b/examples/USA OGD/Baton_rouge/Baton_Rouge_Crime_Incidents_summary.xlsx
@@ -1799,6 +1799,341 @@
         <v>0</v>
       </c>
     </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>&lt;Undefined_20&gt;</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>&lt;Undefined_21&gt;</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>&lt;Undefined_22&gt;</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0</v>
+      </c>
+      <c r="S24" t="n">
+        <v>0</v>
+      </c>
+      <c r="T24" t="n">
+        <v>0</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>&lt;Undefined_23&gt;</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>&lt;Undefined_24&gt;</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/examples/USA OGD/Baton_rouge/Baton_Rouge_Crime_Incidents_summary.xlsx
+++ b/examples/USA OGD/Baton_rouge/Baton_Rouge_Crime_Incidents_summary.xlsx
@@ -53,6 +53,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
